--- a/biology/Botanique/Platanthera_hyperborea/Platanthera_hyperborea.xlsx
+++ b/biology/Botanique/Platanthera_hyperborea/Platanthera_hyperborea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Platanthera hyperborea — nom vernaculaire : orchidée verte du nord[3],[4] — est une espèce de plantes à fleurs appartenant à la famille des orchidées.
-Elle est essentiellement distribuée au Groenland, en Islande et sur l'île Akimiski, au Canada[5],[6]. Cette platanthère nordique fait partie de la section des Limonorchis[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Platanthera hyperborea — nom vernaculaire : orchidée verte du nord, — est une espèce de plantes à fleurs appartenant à la famille des orchidées.
+Elle est essentiellement distribuée au Groenland, en Islande et sur l'île Akimiski, au Canada,. Cette platanthère nordique fait partie de la section des Limonorchis.
 </t>
         </is>
       </c>
@@ -514,12 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Hyperborea, le terme spécifique du nom scientifique de l'orchidée, est formé du préfixe hyper, signifiant « au-delà » ou « au-dessus » et de borea, signifiant « du nord »[4]. Le terme spécifique de l'espèce suppose qu'elle pousse au-delà du nord, autrement dit dans la région arctique[4].
-Noms vernaculaires
-Synonymes
-Platanthera hyperborea possède 4 synonymes homotypiques — Orchis hyperborea L. (Mant, en 1767) ;
-Habenaria hyperborea (L.) (R.Br., en 1813) ; et Gymnadenia hyperborea (L.) (Link, en 1829) ; Limnorchis hyperborea (L.) (Rydb., en 1900) —, ainsi que 9 synonymes hétérotypiques — Orchis koenigii (Gunnerus, en 1776) ; Orchis acuta (Banks et Pursh, en 1813) ; Habenaria borealis (Cham., en 1828) ; Platanthera koenigii (Gunnerus) (Lindl, en 1835) ; Platanthera borealis (Cham.), (Rchb.f., en 1851) ; Platanthera hyperborea var. minor (Lange, en 1880) ; Limnorchis borealis (Cham.) (Rydb., en 1901) ; Limnorchis brachypetala, (Britton et Rydb., en 1901) ; et Habenaria dilatata var. borealis (Cham.) (Muenscher, en 1941)[8].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyperborea, le terme spécifique du nom scientifique de l'orchidée, est formé du préfixe hyper, signifiant « au-delà » ou « au-dessus » et de borea, signifiant « du nord ». Le terme spécifique de l'espèce suppose qu'elle pousse au-delà du nord, autrement dit dans la région arctique.
 </t>
         </is>
       </c>
@@ -545,14 +558,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Platanthera hyperborea atteint une hauteur variant entre 7 et 35 cm[6]. Les feuilles de cette plante herbacée, aux formes elliptiques et oblongues, ont une longueur comprise entre 3 et 14 cm et une largeur allant de 0,4 à 4 cm[6].
-Les pièces florales de l'orchidée sont caractérisées par un phénomène de résupination peu marqué mais parfois observable[6],[7]. Le labelle, de forme ovale, se déploie sur une longueur moyenne de 4 à 5,5 mm (avec un maximum de 6 mm) et une largeur de 2 à 2,5 mm (avec un minimum de 1,5 mm)[6]. Les sépales, effilés au niveau de l'apex caulinaire, mesurent entre 4 et 6 mm de long[6]. L'éperon présente un aspect claviforme[6]. Les contours des bractées sont dentelés[7]. Le diamètre de l'ovaire mesure la plupart du temps entre 6 et 10 mm[6].
-Les fleurs se développent aux mois de juillet et août[6].
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Platanthera hyperborea possède 4 synonymes homotypiques — Orchis hyperborea L. (Mant, en 1767) ;
+Habenaria hyperborea (L.) (R.Br., en 1813) ; et Gymnadenia hyperborea (L.) (Link, en 1829) ; Limnorchis hyperborea (L.) (Rydb., en 1900) —, ainsi que 9 synonymes hétérotypiques — Orchis koenigii (Gunnerus, en 1776) ; Orchis acuta (Banks et Pursh, en 1813) ; Habenaria borealis (Cham., en 1828) ; Platanthera koenigii (Gunnerus) (Lindl, en 1835) ; Platanthera borealis (Cham.), (Rchb.f., en 1851) ; Platanthera hyperborea var. minor (Lange, en 1880) ; Limnorchis borealis (Cham.) (Rydb., en 1901) ; Limnorchis brachypetala, (Britton et Rydb., en 1901) ; et Habenaria dilatata var. borealis (Cham.) (Muenscher, en 1941).
 </t>
         </is>
       </c>
@@ -578,12 +596,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante à fleur est essentiellement autogame[9],[7],[6]. L'espèce peut cependant parfois présenter un profil reproductif de type entogame[9],[7]. Plantathera hyperborea est polyploïde et les cellules de son albumen contiennent 2n = 84 chromosomes[6],[10],[11].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Platanthera hyperborea atteint une hauteur variant entre 7 et 35 cm. Les feuilles de cette plante herbacée, aux formes elliptiques et oblongues, ont une longueur comprise entre 3 et 14 cm et une largeur allant de 0,4 à 4 cm.
+Les pièces florales de l'orchidée sont caractérisées par un phénomène de résupination peu marqué mais parfois observable,. Le labelle, de forme ovale, se déploie sur une longueur moyenne de 4 à 5,5 mm (avec un maximum de 6 mm) et une largeur de 2 à 2,5 mm (avec un minimum de 1,5 mm). Les sépales, effilés au niveau de l'apex caulinaire, mesurent entre 4 et 6 mm de long. L'éperon présente un aspect claviforme. Les contours des bractées sont dentelés. Le diamètre de l'ovaire mesure la plupart du temps entre 6 et 10 mm.
+Les fleurs se développent aux mois de juillet et août.
 </t>
         </is>
       </c>
@@ -609,13 +631,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante à fleur est essentiellement autogame. L'espèce peut cependant parfois présenter un profil reproductif de type entogame,. Plantathera hyperborea est polyploïde et les cellules de son albumen contiennent 2n = 84 chromosomes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Platanthera_hyperborea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Platanthera_hyperborea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Aire de répartition et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Platanthera hyperborea est principalement distribuée sur les côtes du Groenland — dont le sud de la baie de Disko[12] et la région d'Ammassalik[13] — et de l'Islande[6]. L'orchidée verte du nord est également recensée sur l'île Akimiski, dans le territoire fédéral canadien du Nunavut[14],[15]. Des individus appartenant à l'espèce auraient été observés dans le Manitoba et en Alaska[16],[17],[18]. Toutefois ses observations sont à nuancer puisqu'elles résulteraient d'une confusion avec platanthera huronensis et platanthera aquilonis, platanthera hyperborea se révélant phylogénétiquement proche de ces deux espèces, lesquelles font partie du même groupe — celui des limnorchis[19],[20],[17]. Elle est présente à une altitude moyenne de 0 m et sous un climat de toundra humide[6]. 
-L'espèce niche au sein d'habitats de niveaux d'humidité xérique à mésique et parfois hydrique[9]. Les sites dans lesquels se développe platanthera hyperborea sont généralement de type rocheux[9].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Platanthera hyperborea est principalement distribuée sur les côtes du Groenland — dont le sud de la baie de Disko et la région d'Ammassalik — et de l'Islande. L'orchidée verte du nord est également recensée sur l'île Akimiski, dans le territoire fédéral canadien du Nunavut,. Des individus appartenant à l'espèce auraient été observés dans le Manitoba et en Alaska. Toutefois ses observations sont à nuancer puisqu'elles résulteraient d'une confusion avec platanthera huronensis et platanthera aquilonis, platanthera hyperborea se révélant phylogénétiquement proche de ces deux espèces, lesquelles font partie du même groupe — celui des limnorchis. Elle est présente à une altitude moyenne de 0 m et sous un climat de toundra humide. 
+L'espèce niche au sein d'habitats de niveaux d'humidité xérique à mésique et parfois hydrique. Les sites dans lesquels se développe platanthera hyperborea sont généralement de type rocheux.
 </t>
         </is>
       </c>
